--- a/data/trans_dic/P04D$aparatos-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,9; 51,65</t>
+          <t>42,05; 52,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,39; 52,11</t>
+          <t>42,43; 52,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,37; 56,8</t>
+          <t>47,5; 56,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,8; 54,97</t>
+          <t>42,4; 54,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,43; 46,78</t>
+          <t>36,29; 47,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,16; 54,32</t>
+          <t>45,54; 54,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,72; 51,3</t>
+          <t>43,73; 51,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,09; 48,03</t>
+          <t>40,85; 48,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,43; 54,2</t>
+          <t>48,09; 54,22</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,62; 59,85</t>
+          <t>49,4; 60,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,42; 57,01</t>
+          <t>46,44; 56,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,18; 64,07</t>
+          <t>54,02; 64,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,06; 62,64</t>
+          <t>51,25; 62,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,6; 54,42</t>
+          <t>43,91; 54,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,7; 61,13</t>
+          <t>52,49; 61,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,88; 59,39</t>
+          <t>52,06; 59,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,69; 53,94</t>
+          <t>46,65; 54,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,68; 61,72</t>
+          <t>54,45; 61,17</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,98; 67,73</t>
+          <t>59,83; 67,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,27; 57,51</t>
+          <t>48,39; 57,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 66,6</t>
+          <t>16,64; 66,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,28; 68,76</t>
+          <t>55,94; 68,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,39; 62,97</t>
+          <t>47,1; 63,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,5; 69,79</t>
+          <t>57,79; 69,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,14; 66,65</t>
+          <t>60,45; 66,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,97; 57,88</t>
+          <t>49,55; 57,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 66,29</t>
+          <t>19,19; 66,09</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,12; 71,51</t>
+          <t>65,8; 71,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,65; 57,66</t>
+          <t>51,48; 57,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,43; 71,85</t>
+          <t>65,35; 71,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,18; 67,32</t>
+          <t>60,73; 67,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,37; 56,49</t>
+          <t>49,42; 56,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,06; 86,06</t>
+          <t>63,91; 84,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,72; 68,9</t>
+          <t>64,69; 69,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,44; 56,02</t>
+          <t>51,6; 56,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,3; 79,61</t>
+          <t>66,41; 79,75</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,91; 78,43</t>
+          <t>70,46; 78,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,01; 62,08</t>
+          <t>53,81; 62,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>66,21; 74,8</t>
+          <t>66,03; 74,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,28; 73,81</t>
+          <t>66,94; 73,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,97; 63,22</t>
+          <t>55,87; 63,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,25; 76,02</t>
+          <t>48,14; 75,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,53; 74,77</t>
+          <t>69,71; 74,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,23; 61,62</t>
+          <t>56,17; 61,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>58,06; 74,11</t>
+          <t>56,89; 74,1</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,7; 61,35</t>
+          <t>49,27; 61,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,61; 53,65</t>
+          <t>41,48; 53,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>51,76; 73,78</t>
+          <t>51,85; 73,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>66,55; 72,22</t>
+          <t>66,38; 71,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,8; 54,07</t>
+          <t>47,99; 54,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,53; 75,01</t>
+          <t>68,5; 74,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>64,09; 69,09</t>
+          <t>64,18; 69,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,38; 52,87</t>
+          <t>47,06; 52,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65,97; 73,43</t>
+          <t>65,83; 73,04</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,49; 64,91</t>
+          <t>61,61; 64,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,24; 54,91</t>
+          <t>51,36; 54,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,01; 64,81</t>
+          <t>46,2; 64,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63,52; 66,65</t>
+          <t>63,31; 66,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,43; 53,88</t>
+          <t>50,57; 53,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,55; 72,62</t>
+          <t>62,89; 71,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>63,0; 65,32</t>
+          <t>62,9; 65,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,43; 53,94</t>
+          <t>51,4; 53,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>55,65; 66,79</t>
+          <t>55,14; 66,45</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene aparatos de calefacción en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>205740</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>202047</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>262416</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>152516</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>143194</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>224586</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>358256</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>345241</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>487001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>183860; 228302</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>182066; 223884</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>239475; 284416</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>133337; 171584</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>125950; 164296</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>203147; 241868</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>328692; 390056</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>317020; 374656</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>457041; 515287</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>227915</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>194771</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>268235</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>193401</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>183366</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>217527</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>421316</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>378137</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>485762</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>205690; 250390</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>175195; 214734</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>244280; 289974</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>173231; 211663</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>163452; 204320</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>200809; 234175</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>392760; 449928</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>349614; 407157</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>454570; 510670</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>402739</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>276831</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>277952</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>162535</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>92170</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>105583</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>565274</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>369001</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>383535</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>376608; 427503</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>252560; 298797</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>111032; 446827</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>145528; 177262</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>78243; 105093</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>95496; 115642</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>537738; 594545</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>340907; 392496</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>159767; 550242</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>796096</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>627112</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>709875</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>491170</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>435523</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>705294</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1287267</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1062636</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1415170</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>761371; 829937</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>591794; 661057</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>674273; 742748</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>465027; 519223</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>408167; 462780</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>624204; 823241</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1243840; 1328682</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1019458; 1106854</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1333901; 1601734</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>379520</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>360843</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>334922</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>537639</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>439556</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>575198</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>917158</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>800399</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>910121</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>358410; 398164</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>333984; 385785</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>313002; 355329</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>509043; 562203</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>412481; 466655</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>404102; 634867</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>884721; 949284</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>763295; 837260</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>747246; 973222</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>866</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>146959</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>136730</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>152206</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>768597</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>551439</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>546493</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>915556</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>688169</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>698699</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>131060; 163014</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>119118; 154343</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>124710; 176859</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>734971; 796952</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>519250; 587403</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>520471; 568833</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>881314; 948677</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>644376; 720690</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>658568; 730655</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1739</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2149</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2127</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3471</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3490</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5620</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2158968</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1798334</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2005606</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2305859</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1845249</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2374681</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4464827</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3643583</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4380288</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2103978; 2217758</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1738953; 1854354</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1557003; 2183686</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2244861; 2363020</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1785900; 1905994</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2245111; 2567345</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4378247; 4543143</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3555272; 3720990</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3826395; 4611785</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P04D$aparatos-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
